--- a/SubaruForester.xlsx
+++ b/SubaruForester.xlsx
@@ -3418,9 +3418,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3465,9 +3465,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3512,9 +3512,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3559,9 +3559,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3606,9 +3606,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3653,9 +3653,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3700,9 +3700,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3747,9 +3747,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3794,9 +3794,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3841,9 +3841,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3888,9 +3888,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3935,9 +3935,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3982,9 +3982,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4029,9 +4029,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4076,9 +4076,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4123,9 +4123,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4170,9 +4170,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4217,9 +4217,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4264,9 +4264,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>261938</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5036,8 +5036,458 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId3" name="Control 19">
+        <control shapeId="1025" r:id="rId3" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId3" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId5" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId6" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId6" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId7" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId7" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId8" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId8" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId9" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId9" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId10" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId10" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId11" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId11" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId12" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId12" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId13" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId13" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId14" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId14" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId15" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId15" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId16" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId16" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId17" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId17" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId18" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId18" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId19" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId19" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId21" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId21" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId22" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId22" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId23" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -5056,457 +5506,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId3" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId5" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId5" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId6" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId6" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId7" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId7" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId8" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId8" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId10" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId10" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId11" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId11" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId12" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId12" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId13" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId13" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId14" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId14" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId15" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId15" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId16" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId16" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId17" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId17" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId18" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId18" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId19" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId19" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId20" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId20" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId21" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId21" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId22" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId22" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId23" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId23" name="Control 1"/>
+        <control shapeId="1043" r:id="rId23" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -5518,7 +5518,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/SubaruForester.xlsx
+++ b/SubaruForester.xlsx
@@ -1350,7 +1350,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5036,8 +5035,458 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId3" name="Control 1">
+        <control shapeId="1043" r:id="rId3" name="Control 19">
           <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId3" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId5" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId5" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId6" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId6" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId7" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId7" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId8" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId8" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId10" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId10" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId11" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId11" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId12" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId12" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId13" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId13" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId14" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId14" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId15" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId15" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId16" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId16" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId17" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId17" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId18" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId18" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId19" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId19" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId20" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId20" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId21" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId21" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId22" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>261938</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId22" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId23" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -5056,457 +5505,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId3" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId5" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId6" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId6" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId7" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId7" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId8" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId8" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId9" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId9" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId10" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId10" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId11" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId11" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId12" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId12" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId13" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId13" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId14" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId14" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId15" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId15" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId16" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId16" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId17" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId17" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId18" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId18" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId19" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId19" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId21" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId21" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId22" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId22" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId23" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>261938</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId23" name="Control 19"/>
+        <control shapeId="1025" r:id="rId23" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -5515,10 +5514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F2" sqref="F2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5526,7 +5525,7 @@
     <col min="4" max="4" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>19</v>
       </c>
@@ -5557,8 +5556,12 @@
         <f>-0.116*28227*EXP(-0.116*A2)</f>
         <v>-361.35800040289968</v>
       </c>
+      <c r="F2">
+        <f>E2/D2</f>
+        <v>-9.0770660739236286E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>18</v>
       </c>
@@ -5575,8 +5578,12 @@
         <f t="shared" ref="E3:E21" si="0">-0.116*28227*EXP(-0.116*A3)</f>
         <v>-405.80354281478338</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="1">E3/D3</f>
+        <v>-0.11903888026247679</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>17</v>
       </c>
@@ -5593,8 +5600,12 @@
         <f t="shared" si="0"/>
         <v>-455.71570347805221</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>-0.11537106417165878</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>16</v>
       </c>
@@ -5611,8 +5622,12 @@
         <f t="shared" si="0"/>
         <v>-511.76685387215497</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>-0.12021772465871622</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>15</v>
       </c>
@@ -5629,8 +5644,12 @@
         <f t="shared" si="0"/>
         <v>-574.71206439305263</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>-0.12124727096899844</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>14</v>
       </c>
@@ -5647,8 +5666,12 @@
         <f t="shared" si="0"/>
         <v>-645.39927597857934</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-0.10819769924200827</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>13</v>
       </c>
@@ -5665,8 +5688,12 @@
         <f t="shared" si="0"/>
         <v>-724.78072280173592</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-0.12067611102260005</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>12</v>
       </c>
@@ -5683,8 +5710,12 @@
         <f t="shared" si="0"/>
         <v>-813.9257599081061</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-0.12168123185948664</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>11</v>
       </c>
@@ -5701,8 +5732,12 @@
         <f t="shared" si="0"/>
         <v>-914.0352685997259</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-0.1286648745213578</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5719,8 +5754,12 @@
         <f t="shared" si="0"/>
         <v>-1026.4578336217028</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-0.13367076880084683</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -5737,8 +5776,12 @@
         <f t="shared" si="0"/>
         <v>-1152.7079100760154</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-0.12303425232959926</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>8</v>
       </c>
@@ -5755,8 +5798,12 @@
         <f t="shared" si="0"/>
         <v>-1294.4862247907163</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>-0.11880380183468395</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>7</v>
       </c>
@@ -5773,8 +5820,12 @@
         <f t="shared" si="0"/>
         <v>-1453.7026869733349</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>-0.11667892182144113</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5791,8 +5842,12 @@
         <f t="shared" si="0"/>
         <v>-1632.502116780076</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>-0.11530598366860263</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>5</v>
       </c>
@@ -5809,8 +5864,12 @@
         <f t="shared" si="0"/>
         <v>-1833.2931383928262</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>-0.10851098777110543</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5827,8 +5886,12 @@
         <f t="shared" si="0"/>
         <v>-2058.7806268253635</v>
       </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>-0.11399040068796652</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5845,8 +5908,12 @@
         <f t="shared" si="0"/>
         <v>-2312.0021455527981</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>-0.1126871445899887</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5863,8 +5930,12 @@
         <f t="shared" si="0"/>
         <v>-2596.3688658190204</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>-0.11286597399665364</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5881,8 +5952,12 @@
         <f t="shared" si="0"/>
         <v>-2915.7115188500607</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>-0.11126971145054422</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0</v>
       </c>
@@ -5898,6 +5973,10 @@
       <c r="E21">
         <f t="shared" si="0"/>
         <v>-3274.3320000000003</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>-0.11176338874287471</v>
       </c>
     </row>
   </sheetData>
